--- a/Instances/04_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse.xlsx
+++ b/Instances/04_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse.xlsx
@@ -2279,7 +2279,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>11.6711584</v>
+        <v>11.7057952</v>
       </c>
       <c r="F2" t="n">
         <v>0.342144</v>
@@ -2311,7 +2311,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>2.1777472</v>
+        <v>2.1799264</v>
       </c>
       <c r="F3" t="n">
         <v>0.335664</v>
@@ -2343,7 +2343,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8927120000000001</v>
+        <v>0.885464</v>
       </c>
       <c r="F4" t="n">
         <v>0.336064</v>
@@ -2375,7 +2375,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.426824</v>
+        <v>1.419984</v>
       </c>
       <c r="F5" t="n">
         <v>0.334288</v>
@@ -2407,7 +2407,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9675328000000001</v>
+        <v>0.9508511999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.327968</v>
@@ -2439,7 +2439,7 @@
         <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2714304</v>
+        <v>0.2785056</v>
       </c>
       <c r="F7" t="n">
         <v>0.328704</v>
@@ -2471,7 +2471,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1001088</v>
+        <v>0.08363520000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.327296</v>
@@ -2497,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8631088000000001</v>
+        <v>0.8668096000000001</v>
       </c>
       <c r="F9" t="n">
         <v>0.346256</v>
@@ -2529,13 +2529,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5184000000000001</v>
+        <v>0.5152896</v>
       </c>
       <c r="F10" t="n">
         <v>0.3456</v>
@@ -2561,13 +2561,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1797</v>
+        <v>1812</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7539840000000001</v>
+        <v>0.758016</v>
       </c>
       <c r="F11" t="n">
         <v>0.343824</v>
@@ -2593,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2299056</v>
+        <v>1.2240096</v>
       </c>
       <c r="F12" t="n">
         <v>0.3460800000000001</v>
@@ -2625,13 +2625,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3233</v>
+        <v>3241</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>12.55102399999999</v>
+        <v>12.58827199999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.327712</v>
@@ -2663,7 +2663,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>4.859158400000001</v>
+        <v>4.864020800000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.3284</v>
@@ -2689,13 +2689,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8714288000000001</v>
+        <v>0.8643535999999999</v>
       </c>
       <c r="F15" t="n">
         <v>0.323984</v>
@@ -2721,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8777887999999999</v>
+        <v>0.8735807999999999</v>
       </c>
       <c r="F16" t="n">
         <v>0.320608</v>
@@ -2753,13 +2753,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>1.411488</v>
+        <v>1.387152</v>
       </c>
       <c r="F17" t="n">
         <v>0.321552</v>
@@ -2785,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>0.425376</v>
+        <v>0.436464</v>
       </c>
       <c r="F18" t="n">
         <v>0.322272</v>
@@ -2817,13 +2817,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1385344</v>
+        <v>0.1157376</v>
       </c>
       <c r="F19" t="n">
         <v>0.32096</v>
@@ -2855,7 +2855,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>62.93064000000001</v>
+        <v>62.82544</v>
       </c>
       <c r="F20" t="n">
         <v>0.04208000000000001</v>
@@ -2887,7 +2887,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>66.80697600000001</v>
+        <v>66.695296</v>
       </c>
       <c r="F21" t="n">
         <v>0.044672</v>
@@ -2919,7 +2919,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>82.69516800000001</v>
+        <v>82.556928</v>
       </c>
       <c r="F22" t="n">
         <v>0.055296</v>
@@ -2951,7 +2951,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>254.450352</v>
+        <v>254.024992</v>
       </c>
       <c r="F23" t="n">
         <v>0.170144</v>
@@ -3064,34 +3064,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D2" t="n">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>294</v>
+      </c>
+      <c r="G2" t="n">
+        <v>82</v>
+      </c>
+      <c r="H2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2" t="n">
+        <v>420</v>
+      </c>
+      <c r="J2" t="n">
         <v>300</v>
       </c>
-      <c r="G2" t="n">
-        <v>95</v>
-      </c>
-      <c r="H2" t="n">
-        <v>37</v>
-      </c>
-      <c r="I2" t="n">
-        <v>416</v>
-      </c>
-      <c r="J2" t="n">
-        <v>299</v>
-      </c>
       <c r="K2" t="n">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="L2" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3135,34 +3135,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D3" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G3" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H3" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="J3" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K3" t="n">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="L3" t="n">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3206,34 +3206,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="D4" t="n">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G4" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
         <v>422</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K4" t="n">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L4" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3277,34 +3277,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G5" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J5" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K5" t="n">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="L5" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3348,34 +3348,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D6" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G6" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H6" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I6" t="n">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J6" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K6" t="n">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="L6" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3506,34 +3506,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75.625</v>
+        <v>75.25</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>17.625</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J2" t="n">
         <v>37.5</v>
       </c>
-      <c r="G2" t="n">
-        <v>11.875</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.625</v>
-      </c>
-      <c r="I2" t="n">
-        <v>52</v>
-      </c>
-      <c r="J2" t="n">
-        <v>37.375</v>
-      </c>
       <c r="K2" t="n">
-        <v>112.125</v>
+        <v>113</v>
       </c>
       <c r="L2" t="n">
-        <v>25.875</v>
+        <v>26</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3577,34 +3577,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>112.6875</v>
+        <v>113.625</v>
       </c>
       <c r="D3" t="n">
-        <v>27.375</v>
+        <v>27.5625</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>56.25</v>
+        <v>55.125</v>
       </c>
       <c r="G3" t="n">
-        <v>13.5</v>
+        <v>16.125</v>
       </c>
       <c r="H3" t="n">
-        <v>6.75</v>
+        <v>4.875</v>
       </c>
       <c r="I3" t="n">
-        <v>78.375</v>
+        <v>79.3125</v>
       </c>
       <c r="J3" t="n">
-        <v>56.8125</v>
+        <v>55.875</v>
       </c>
       <c r="K3" t="n">
-        <v>168.75</v>
+        <v>170.25</v>
       </c>
       <c r="L3" t="n">
-        <v>39.9375</v>
+        <v>38.0625</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3648,34 +3648,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>129.71875</v>
+        <v>131.6875</v>
       </c>
       <c r="D4" t="n">
-        <v>33.90625</v>
+        <v>31.0625</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>66.9375</v>
+        <v>65.84375</v>
       </c>
       <c r="G4" t="n">
-        <v>16.625</v>
+        <v>19.03125</v>
       </c>
       <c r="H4" t="n">
-        <v>5.25</v>
+        <v>6.5625</v>
       </c>
       <c r="I4" t="n">
         <v>92.3125</v>
       </c>
       <c r="J4" t="n">
-        <v>65.84375</v>
+        <v>64.96875</v>
       </c>
       <c r="K4" t="n">
-        <v>197.75</v>
+        <v>197.53125</v>
       </c>
       <c r="L4" t="n">
-        <v>45.28125</v>
+        <v>45.5</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3719,34 +3719,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>141.328125</v>
+        <v>139.21875</v>
       </c>
       <c r="D5" t="n">
-        <v>32.8125</v>
+        <v>34.6875</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>70.546875</v>
+        <v>70.78125</v>
       </c>
       <c r="G5" t="n">
-        <v>21.796875</v>
+        <v>20.625</v>
       </c>
       <c r="H5" t="n">
-        <v>6.796875</v>
+        <v>6.328125</v>
       </c>
       <c r="I5" t="n">
-        <v>98.203125</v>
+        <v>98.90625</v>
       </c>
       <c r="J5" t="n">
-        <v>70.546875</v>
+        <v>69.609375</v>
       </c>
       <c r="K5" t="n">
-        <v>207.65625</v>
+        <v>210.9375</v>
       </c>
       <c r="L5" t="n">
-        <v>48.984375</v>
+        <v>49.453125</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3790,34 +3790,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>144.34375</v>
+        <v>144.5859375</v>
       </c>
       <c r="D6" t="n">
-        <v>35.359375</v>
+        <v>37.5390625</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>72.8984375</v>
+        <v>70.4765625</v>
       </c>
       <c r="G6" t="n">
-        <v>20.828125</v>
+        <v>21.796875</v>
       </c>
       <c r="H6" t="n">
-        <v>7.75</v>
+        <v>6.0546875</v>
       </c>
       <c r="I6" t="n">
-        <v>102.6875</v>
+        <v>101.9609375</v>
       </c>
       <c r="J6" t="n">
-        <v>71.6875</v>
+        <v>72.4140625</v>
       </c>
       <c r="K6" t="n">
-        <v>218.2109375</v>
+        <v>217.2421875</v>
       </c>
       <c r="L6" t="n">
-        <v>50.1328125</v>
+        <v>50.375</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>523425</v>
+        <v>522550</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523425</v>
+        <v>522550</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4935150</v>
+        <v>4926899.999999999</v>
       </c>
     </row>
   </sheetData>
